--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H2">
         <v>1.8681</v>
       </c>
       <c r="I2">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J2">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N2">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O2">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P2">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q2">
-        <v>0.9930859037666667</v>
+        <v>0.7094832082</v>
       </c>
       <c r="R2">
-        <v>8.9377731339</v>
+        <v>6.3853488738</v>
       </c>
       <c r="S2">
-        <v>0.08759156879789966</v>
+        <v>0.1363089755396523</v>
       </c>
       <c r="T2">
-        <v>0.08759156879789969</v>
+        <v>0.1363089755396523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H3">
         <v>1.8681</v>
       </c>
       <c r="I3">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J3">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>16.965439</v>
       </c>
       <c r="O3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P3">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q3">
-        <v>3.521459621766667</v>
+        <v>3.521459621766666</v>
       </c>
       <c r="R3">
         <v>31.6931365959</v>
       </c>
       <c r="S3">
-        <v>0.3105976749434091</v>
+        <v>0.6765580184273428</v>
       </c>
       <c r="T3">
-        <v>0.3105976749434091</v>
+        <v>0.6765580184273429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H4">
         <v>1.8681</v>
       </c>
       <c r="I4">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J4">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N4">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P4">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q4">
-        <v>1.918456088466667</v>
+        <v>0.3034365208333333</v>
       </c>
       <c r="R4">
-        <v>17.2661047962</v>
+        <v>2.7309286875</v>
       </c>
       <c r="S4">
-        <v>0.169210516251734</v>
+        <v>0.05829753377961346</v>
       </c>
       <c r="T4">
-        <v>0.1692105162517341</v>
+        <v>0.05829753377961347</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6227</v>
+        <v>0.6226999999999999</v>
       </c>
       <c r="H5">
         <v>1.8681</v>
       </c>
       <c r="I5">
-        <v>0.5682784366608796</v>
+        <v>0.8812810914468889</v>
       </c>
       <c r="J5">
-        <v>0.5682784366608797</v>
+        <v>0.881281091446889</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N5">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P5">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q5">
-        <v>0.009962162166666667</v>
+        <v>0.05265634226666666</v>
       </c>
       <c r="R5">
-        <v>0.0896594595</v>
+        <v>0.4739070804</v>
       </c>
       <c r="S5">
-        <v>0.000878676667836825</v>
+        <v>0.01011656370028044</v>
       </c>
       <c r="T5">
-        <v>0.0008786766678368252</v>
+        <v>0.01011656370028044</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H6">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I6">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J6">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N6">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O6">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P6">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q6">
-        <v>0.7002395908083334</v>
+        <v>0.05684790699266668</v>
       </c>
       <c r="R6">
-        <v>6.302156317275</v>
+        <v>0.511631162934</v>
       </c>
       <c r="S6">
-        <v>0.061762113489542</v>
+        <v>0.01092186520298795</v>
       </c>
       <c r="T6">
-        <v>0.061762113489542</v>
+        <v>0.01092186520298795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H7">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I7">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J7">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>16.965439</v>
       </c>
       <c r="O7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P7">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q7">
-        <v>2.483033376308334</v>
+        <v>0.2821597562041112</v>
       </c>
       <c r="R7">
-        <v>22.347300386775</v>
+        <v>2.539437805837</v>
       </c>
       <c r="S7">
-        <v>0.2190070244512243</v>
+        <v>0.05420974994500292</v>
       </c>
       <c r="T7">
-        <v>0.2190070244512243</v>
+        <v>0.05420974994500292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H8">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I8">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J8">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N8">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P8">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q8">
-        <v>1.352731824383334</v>
+        <v>0.02431309284722222</v>
       </c>
       <c r="R8">
-        <v>12.17458641945</v>
+        <v>0.218817835625</v>
       </c>
       <c r="S8">
-        <v>0.1193128431399231</v>
+        <v>0.004671136314294676</v>
       </c>
       <c r="T8">
-        <v>0.1193128431399231</v>
+        <v>0.004671136314294676</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.439075</v>
+        <v>0.04989433333333334</v>
       </c>
       <c r="H9">
-        <v>1.317225</v>
+        <v>0.149683</v>
       </c>
       <c r="I9">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="J9">
-        <v>0.4007015490234074</v>
+        <v>0.07061334918422178</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N9">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P9">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q9">
-        <v>0.007024468208333334</v>
+        <v>0.004219131352444445</v>
       </c>
       <c r="R9">
-        <v>0.063220213875</v>
+        <v>0.037972182172</v>
       </c>
       <c r="S9">
-        <v>0.0006195679427179284</v>
+        <v>0.0008105977219362329</v>
       </c>
       <c r="T9">
-        <v>0.0006195679427179284</v>
+        <v>0.0008105977219362332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H10">
         <v>0.101972</v>
       </c>
       <c r="I10">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J10">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.594806333333333</v>
+        <v>1.139366</v>
       </c>
       <c r="N10">
-        <v>4.784419</v>
+        <v>3.418098</v>
       </c>
       <c r="O10">
-        <v>0.1541349506635775</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="P10">
-        <v>0.1541349506635776</v>
+        <v>0.1546713947032042</v>
       </c>
       <c r="Q10">
-        <v>0.05420853047422223</v>
+        <v>0.03872780991733333</v>
       </c>
       <c r="R10">
-        <v>0.487876774268</v>
+        <v>0.348550289256</v>
       </c>
       <c r="S10">
-        <v>0.004781268376135873</v>
+        <v>0.007440553960563902</v>
       </c>
       <c r="T10">
-        <v>0.004781268376135875</v>
+        <v>0.007440553960563903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H11">
         <v>0.101972</v>
       </c>
       <c r="I11">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J11">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>16.965439</v>
       </c>
       <c r="O11">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="P11">
-        <v>0.5465589663553578</v>
+        <v>0.7676983257595695</v>
       </c>
       <c r="Q11">
-        <v>0.1922221939675556</v>
+        <v>0.1922221939675555</v>
       </c>
       <c r="R11">
         <v>1.729999745708</v>
       </c>
       <c r="S11">
-        <v>0.01695426696072443</v>
+        <v>0.03693055738722391</v>
       </c>
       <c r="T11">
-        <v>0.01695426696072444</v>
+        <v>0.03693055738722392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H12">
         <v>0.101972</v>
       </c>
       <c r="I12">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J12">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.080867333333333</v>
+        <v>0.4872916666666667</v>
       </c>
       <c r="N12">
-        <v>9.242602</v>
+        <v>1.461875</v>
       </c>
       <c r="O12">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="P12">
-        <v>0.2977598749760594</v>
+        <v>0.06615089594615092</v>
       </c>
       <c r="Q12">
-        <v>0.1047207345715556</v>
+        <v>0.01656336861111111</v>
       </c>
       <c r="R12">
-        <v>0.942486611144</v>
+        <v>0.1490703175</v>
       </c>
       <c r="S12">
-        <v>0.009236515584402239</v>
+        <v>0.003182225852242784</v>
       </c>
       <c r="T12">
-        <v>0.009236515584402241</v>
+        <v>0.003182225852242784</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03399066666666667</v>
+        <v>0.03399066666666666</v>
       </c>
       <c r="H13">
         <v>0.101972</v>
       </c>
       <c r="I13">
-        <v>0.03102001431571287</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="J13">
-        <v>0.03102001431571288</v>
+        <v>0.04810555936888933</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01599833333333333</v>
+        <v>0.08456133333333334</v>
       </c>
       <c r="N13">
-        <v>0.047995</v>
+        <v>0.253684</v>
       </c>
       <c r="O13">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="P13">
-        <v>0.001546208005005081</v>
+        <v>0.0114793835910754</v>
       </c>
       <c r="Q13">
-        <v>0.0005437940155555555</v>
+        <v>0.002874296094222222</v>
       </c>
       <c r="R13">
-        <v>0.00489414614</v>
+        <v>0.025868664848</v>
       </c>
       <c r="S13">
-        <v>4.796339445032746E-05</v>
+        <v>0.0005522221688587316</v>
       </c>
       <c r="T13">
-        <v>4.796339445032747E-05</v>
+        <v>0.0005522221688587318</v>
       </c>
     </row>
   </sheetData>
